--- a/Analiza_promptów.xlsx
+++ b/Analiza_promptów.xlsx
@@ -699,7 +699,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,6 +964,128 @@
 - "An Interval-Valued Fuzzy Classifier Based on an Uncertainty-Aware Similarity Measure" (2015)
 Ponadto, w latach 2014–2015 prof. Żywica był członkiem zespołu badawczego w projekcie "OvaExpert – An Intelligent System for Computer-Aided Ovarian Tumor Diagnosis" realizowanym w Poznańskim Parku Naukowo-Technologicznym. ([min.wmi.amu.edu.pl](https://min.wmi.amu.edu.pl/en/staff/patryk-zywica/?utm_source=openai))
 Warto również zauważyć, że w 2016 roku obronił pracę doktorską pt. "Miary podobieństwa przedziałowych zbiorów rozmytych w klasyfikacji danych niepewnych. Zastosowania w diagnostyce guzów jajnika" pod kierunkiem prof. dr hab. Macieja Wygralaka na Uniwersytecie im. Adama Mickiewicza w Poznaniu. ([elka.pw.edu.pl](https://www.elka.pw.edu.pl/pol/layout/set/print/Badania-i-nauka/Postepowania-w-sprawach-stopni-naukowych-i-tytulu-naukowego/Obrony-doktorskie-spoza-Wydzialu/mgr-Patryk-Zywica?utm_source=openai))</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jakie są najczęściej cytowane prace naukowe Patryka Żywicy?</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Patryk Żywica jest adiunktem w Katedrze Metod Przetwarzania Informacji Nieprecyzyjnych na Uniwersytecie im. Adama Mickiewicza w Poznaniu. ([min.wmi.amu.edu.pl](https://min.wmi.amu.edu.pl/en/staff/patryk-zywica/?utm_source=openai)) Jego badania koncentrują się na inteligentnych i miękkich metodach obliczeniowych, przetwarzaniu danych niekompletnych i niepewnych oraz modelowaniu podobieństwa między obiektami.
+Wśród jego wybranych publikacji znajdują się:
+- "Modelling Medical Uncertainties with Use of Fuzzy Sets and Their Extensions" opublikowana w 2018 roku.
+- "Practical Notes on Applying Generalised Stochastic Orderings to the Study of Performance of Classification Algorithms for Low Quality Data" z 2017 roku.
+- "Development of a Fuzzy-Driven System for Ovarian Tumor Diagnosis" z 2016 roku.
+Niestety, dostępne źródła nie zawierają informacji na temat liczby cytowań poszczególnych prac naukowych Patryka Żywicy. Aby uzyskać dokładne dane na temat najczęściej cytowanych publikacji, zaleca się skorzystanie z baz danych naukowych, takich jak Scopus, Web of Science czy Google Scholar, które oferują szczegółowe statystyki cytowań dla poszczególnych autorów i ich prac.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Jakie są najczęściej cytowane prace naukowe Wojciecha Pałubickiego?</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Niestety, nie udało mi się znaleźć szczegółowych informacji na temat najczęściej cytowanych prac naukowych Wojciecha Pałubickiego. W dostępnych źródłach nie ma danych dotyczących jego publikacji i liczby cytowań. Możliwe, że informacje te nie są publicznie dostępne lub nie zostały opublikowane w ogólnodostępnych bazach danych.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Jaki jest najczęściej cytowany naukowiec z UAM w Poznaniu?</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Według Rankingu Stanfordzkiego obejmującego 2% najbardziej cytowanych naukowców w 2022 roku, najbardziej cytowanym naukowcem z Uniwersytetu im. Adama Mickiewicza w Poznaniu jest prof. Marek Kwiek z Wydziału Filozoficznego. Zajął on 248. miejsce na 87 000 naukowców w kategorii "Education". ([amu.edu.pl](https://amu.edu.pl/uniwersytet/z-zycia-uniwersytetu/newsy/prof.-kwiek-najbardziej-cytowanym-naukowcem-z-uam?utm_source=openai))
+Wcześniejsze dane z 2020 roku wskazywały, że prof. Mariusz Jaskólski z Wydziału Chemii był najbardziej cytowanym naukowcem UAM, z liczbą 10 873 cytowań. ([uniwersyteckie.pl](https://uniwersyteckie.pl/nauka/profmariusz-jaskolski-najbardziej-cytowanym-naukowcem-z-uam?utm_source=openai))
+Należy jednak zauważyć, że liczba cytowań może się zmieniać w czasie, a różne rankingi mogą stosować odmienne metody oceny.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Jaki jest najczęściej cytowany naukowiec z wydziału Matematyki i Informatyki UAM w Poznaniu?</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Według dostępnych informacji, najczęściej cytowanymi naukowcami z Wydziału Matematyki i Informatyki Uniwersytetu im. Adama Mickiewicza w Poznaniu są prof. Tomasz Łuczak oraz prof. Andrzej Ruciński. Obaj znaleźli się w międzynarodowym rankingu Research.com, który odnotowuje najczęściej cytowanych naukowców na świecie. Prof. Łuczak został wyróżniony w kategoriach Computer Science i Mathematics, natomiast prof. Ruciński w kategoriach Engineering and Technology oraz Mathematics. ([amu.edu.pl](https://amu.edu.pl/dla-mediow/komunikaty-prasowe/naukowcy-z-uam-wsrod-najczesciej-cytowanych-na-swiecie?utm_source=openai))</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Jakie projekty badawcze dotyczące sztucznej inteligencji są aktualnie realizowane w Polsce?</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>W Polsce realizowanych jest obecnie wiele projektów badawczych z zakresu sztucznej inteligencji (SI). Oto kilka z nich:
+1. **Instytut Badawczy IDEAS**: W lutym 2025 roku rząd powołał Instytut Badawczy IDEAS, który koncentruje się na badaniach nad sztuczną inteligencją. Celem instytutu jest stworzenie warunków dla polskich naukowców do rozwijania technologii przyszłości bez konieczności emigracji. Na czele instytutu stanął profesor Piotr Sankowski, uznawany za światowego eksperta w dziedzinie SI. ([gov.pl](https://www.gov.pl/web/premier/rozwoj-sztucznej-inteligencji-i-umacnianie-bezpieczenstwa-miedzynarodowego---nowe-decyzje-rzadu?utm_source=openai))
+2. **Projekt R-GRID**: Międzynarodowe konsorcjum, w skład którego wchodzą Polskie Towarzystwo Bezpieczeństwa Narodowego, Ukraiński Instytut Przyszłości, IDEAS NCBR oraz Laurea University of Applied Sciences z Finlandii, pracuje nad systemem R-GRID. Projekt ten, wspierany przez NATO, ma na celu wykorzystanie sztucznej inteligencji do ochrony sieci elektroenergetycznych przed cyberatakami, zapobiegając potencjalnym blackoutom. ([gramwzielone.pl](https://www.gramwzielone.pl/trendy/20285919/sztuczna-inteligencja-pomoze-chronic-sieci-elektroenergetyczne?utm_source=openai))
+3. **Poznań CityLab**: W 2025 roku w Poznaniu planowane jest otwarcie miejskiego laboratorium innowacji – Poznań CityLab. Będzie to przestrzeń dedykowana testowaniu i wdrażaniu rozwiązań opartych na sztucznej inteligencji, uczeniu maszynowym, big data, internecie rzeczy oraz blockchainie. Celem jest wsparcie procesów administracyjnych oraz dostarczanie mieszkańcom nowoczesnych usług cyfrowych. ([caics.put.poznan.pl](https://caics.put.poznan.pl/pl/home-page/?utm_source=openai))
+4. **Projekty Instytutu Podstaw Informatyki PAN**: Instytut realizuje szereg projektów badawczych związanych z SI, m.in. "Ochrona danych i prywatność a generatywne sieci neuronowe" (2024–2027) oraz "Odpowiedzialny rozwój otwartego dużego modelu językowego PLLuM" (2024). ([ipipan.waw.pl](https://ipipan.waw.pl/instytut/dzialalnosc-naukowa/projekty-badawcze?utm_source=openai))
+5. **Grupa Badawcza AI na Uniwersytecie Szczecińskim**: W Instytucie Ekonomii i Finansów Uniwersytetu Szczecińskiego powstała grupa badawcza AI, której celem jest promocja technologii i metod sztucznej inteligencji w działalności naukowej i dydaktycznej, prowadzenie badań nad wykorzystaniem SI w ekonomii i finansach oraz wsparcie pracowników naukowych w zakresie narzędzi SI. ([ai.usz.edu.pl](https://ai.usz.edu.pl/2024/02/15/grupa-badawcza-ai/?utm_source=openai))
+6. **Centrum Badawcze POB Sztuczna Inteligencja i Robotyka na Politechnice Warszawskiej**: Centrum realizuje strategię rozwoju na lata 2022–2026, której celem jest osiągnięcie pozycji czołowej jednostki badawczej w obszarze SI i robotyki w kraju oraz jej szeroka rozpoznawalność na świecie. ([badawcza.pw.edu.pl](https://badawcza.pw.edu.pl/Centra-Badawcze-POB/Sztuczna-inteligencja-i-robotyka/Strategia-rozwoju-POB-Sztuczna-Inteligencja-i-Robotyka-na-lata-2022-2026?utm_source=openai))
+7. **Rozbudowa centrum R&amp;D Intela w Gdańsku**: Intel rozbudowuje swoje centrum badawczo-rozwojowe w Gdańsku, budując nowy budynek IGK6 o powierzchni 27,5 tys. m², w którym pracować będzie 1500 inżynierów i programistów. Badania koncentrują się na opracowywaniu rozwiązań w dziedzinie głębokich sieci neuronowych, dźwięku, grafiki, centrów danych oraz przetwarzania w chmurze. ([komputerswiat.pl](https://www.komputerswiat.pl/artykuly/redakcyjne/w-polsce-powstaje-sztuczna-inteligencja-intel-rozbudowuje-centrum-randd-w-gdansku/stpnxlr?utm_source=openai))
+Te inicjatywy świadczą o dynamicznym rozwoju badań nad sztuczną inteligencją w Polsce, obejmującym zarówno projekty akademickie, jak i współpracę z sektorem prywatnym oraz międzynarodowe konsorcja.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>W programie których z tych grantów, mogą uczestyniczyć państwa EOG: Norwegia, Lichtenstein, Islandia?</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Państwa Europejskiego Obszaru Gospodarczego (EOG) takie jak Norwegia, Liechtenstein i Islandia mogą uczestniczyć w programach grantowych związanych z funduszami EOG i funduszami norweskimi. Te programy grantowe są częścią mechanizmów finansowych, które wspierają różne projekty w krajach Unii Europejskiej, koncentrując się na zmniejszaniu różnic społecznych i ekonomicznych oraz wzmacnianiu współpracy bilateralnej.
+Jeśli masz na myśli konkretne programy grantowe, daj znać, a postaram się dostarczyć bardziej szczegółowe informacje!</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pokaż granty związane z AI o modelu dofinansowania za pomocą kwot ryczałtowych o stopie dofinansowania w wysokości 95%.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Obecnie nie są dostępne granty związane z sztuczną inteligencją (AI) oferujące dofinansowanie w formie kwot ryczałtowych na poziomie 95%. Większość programów wsparcia dla projektów AI w Polsce oferuje dofinansowanie na poziomie do 85% kosztów kwalifikowanych.
+Na przykład, programy takie jak "Bony na innowacje dla MŚP" oferowane przez Polską Agencję Rozwoju Przedsiębiorczości (PARP) zapewniają dofinansowanie do 85% kosztów kwalifikowanych, z maksymalną kwotą wsparcia wynoszącą 340 000 zł. ([aivirtuo.com](https://aivirtuo.com/synergia-funduszy-i-sztucznej-inteligencji/?utm_source=openai))
+Innym przykładem jest program "Go to Brand", który wspiera promocję marek na rynkach zagranicznych, oferując dofinansowanie do 85% kosztów kwalifikowanych projektu, z maksymalną kwotą wsparcia do 425 670 zł. ([aivirtuo.com](https://aivirtuo.com/synergia-funduszy-i-sztucznej-inteligencji/?utm_source=openai))
+Warto również zwrócić uwagę na program "Granty na Eurogranty", który oferuje dofinansowanie na poziomie do 100% kosztów kwalifikowanych, jednak nie jest on bezpośrednio związany z projektami AI, lecz z przygotowaniem wniosków o dofinansowanie z programów UE. ([crido.pl](https://crido.pl/blog-business/granty-na-eurogranty/?utm_source=openai))
+Zalecam regularne monitorowanie stron internetowych instytucji takich jak PARP czy Narodowe Centrum Badań i Rozwoju (NCBR), aby być na bieżąco z nowymi programami wsparcia, które mogą oferować wyższe poziomy dofinansowania dla projektów związanych z AI.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Podaj informacje o grantach badawczych dostępnych dla projektów AI w medycynie w 2024 roku</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>W 2024 roku dostępnych było kilka programów grantowych wspierających projekty z zakresu sztucznej inteligencji (AI) w medycynie. Oto niektóre z nich:
+1. **Konkurs Naukowej Fundacji Polpharmy**: Tematem XXIII edycji konkursu było "Zastosowanie sztucznej inteligencji (AI) w analizie i zarządzaniu danymi medycznymi". Nabór wniosków trwał od 8 kwietnia do 31 maja 2024 roku. Projekty były oceniane przez niezależnych recenzentów, a wyniki ogłoszono w styczniu 2025 roku. ([polpharma.pl](https://polpharma.pl/naukowa-fundacja-polpharmy/konkurs-o-grant/?utm_source=openai))
+2. **Program EU4Health**: W ramach tego programu ogłoszono nabór na projekty dotyczące m.in. "Advancing the adoption of artificial intelligence in health" z budżetem 4,5 mln euro. Nabór wniosków rozpoczął się 17 września 2024 roku, a termin składania wniosków upłynął 22 stycznia 2025 roku. ([umb.edu.pl](https://www.umb.edu.pl/dre/aktualnosci/29836%2CProgram_EU4Health_-_otwarte_nabory_wnioskow_konkursowych?utm_source=openai))
+3. **Międzynarodowe Agendy Badawcze (MAB FENG)**: Fundacja na rzecz Nauki Polskiej ogłosiła nabór wniosków w ramach programu MAB FENG, wspierającego powstanie lub rozwój wyspecjalizowanych zespołów badawczych. Nabór nr 2/2024 trwał od 26 sierpnia do 30 września 2024 roku. ([fnp.org.pl](https://www.fnp.org.pl/rusza-nabor-wnioskow-w-dzialaniu-miedzynarodowe-agendy-badawcze-mab-feng-nabor-22024/?utm_source=openai))
+4. **Program "Granty na Eurogranty"**: Realizowany z Programu Fundusze Europejskie dla Nowoczesnej Gospodarki 2021–2027, miał na celu ułatwienie polskim firmom i instytucjom start w różnych programach unijnych, w tym Horyzont Europa. Nabór wniosków rozpoczął się w kwietniu 2024 roku i został podzielony na 6 rund. ([granty.pl](https://granty.pl/532987/?utm_source=openai))
+Warto również wspomnieć o międzynarodowej inicjatywie ogłoszonej przez Ministerstwo Nauki i Technologii Informacyjnych Korei Południowej, która rozpoczęła się w 2024 roku. Projekt ten, z budżetem 15 miliardów wonów rozłożonym na trzy lata, miał na celu rozwijanie międzynarodowych współprac badawczych w sektorze medycznym, koncentrując się na zaawansowanej analizie danych medycznych i inteligentnych rozwiązaniach programowych. ([elblog.pl](https://elblog.pl/pl/2024/04/21/nowa-miedzynarodowa-inicjatywa-wspolpracy-w-celu-zwiekszenia-postepu-w-dziedzinie-sztucznej-inteligencji-w-medycynie-i-terapii-cyfrowej/?utm_source=openai))
+Te programy oferowały znaczące wsparcie finansowe dla projektów badawczych z zakresu AI w medycynie, umożliwiając rozwój innowacyjnych rozwiązań w tej dziedzinie.</t>
         </is>
       </c>
     </row>

--- a/Analiza_promptów.xlsx
+++ b/Analiza_promptów.xlsx
@@ -289,7 +289,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,12 +306,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -585,7 +579,7 @@
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -916,12 +910,12 @@
   <cols>
     <col min="1" max="1" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="22" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="22" width="65.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="22" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -938,7 +932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="156">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="172.5">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>8</v>
@@ -951,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="202.5">
       <c r="A3" s="19"/>
       <c r="B3" s="19" t="s">
         <v>11</v>
@@ -964,7 +958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="618.75">
       <c r="A4" s="19"/>
       <c r="B4" s="19" t="s">
         <v>14</v>
@@ -977,7 +971,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="156">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
         <v>16</v>
@@ -990,7 +984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="179.25">
       <c r="A6" s="19"/>
       <c r="B6" s="19" t="s">
         <v>18</v>
@@ -1081,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="132.75">
       <c r="A13" s="19"/>
       <c r="B13" s="19" t="s">
         <v>34</v>
@@ -1107,7 +1101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="63.75">
       <c r="A15" s="19"/>
       <c r="B15" s="19" t="s">
         <v>38</v>
@@ -1133,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="202.5">
       <c r="A17" s="19"/>
       <c r="B17" s="19" t="s">
         <v>42</v>
@@ -1146,7 +1140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="40.5">
       <c r="A18" s="19"/>
       <c r="B18" s="19" t="s">
         <v>44</v>
@@ -1159,7 +1153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="110.25">
       <c r="A19" s="19"/>
       <c r="B19" s="19" t="s">
         <v>46</v>
